--- a/back/Library/LibraryStatistics.xlsx
+++ b/back/Library/LibraryStatistics.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -42,6 +42,24 @@
     <t>user@gmail.com</t>
   </si>
   <si>
+    <t>aad0de0d-b026-4b7d-9572-ed6219d116ce</t>
+  </si>
+  <si>
+    <t>newUser</t>
+  </si>
+  <si>
+    <t>newuser@gmail.com</t>
+  </si>
+  <si>
+    <t>0ea755b2-7311-4e55-9102-0f8416d30277</t>
+  </si>
+  <si>
+    <t>anton</t>
+  </si>
+  <si>
+    <t>antkovking@gmail.com</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -60,6 +78,18 @@
     <t>Лирика серебряного века</t>
   </si>
   <si>
+    <t>Муштук і папка (сборник)</t>
+  </si>
+  <si>
+    <t>Брыль</t>
+  </si>
+  <si>
+    <t>Ночь, улица, фонарь, аптека…</t>
+  </si>
+  <si>
+    <t>Я из огненной деревни</t>
+  </si>
+  <si>
     <t>Евгений Онегин</t>
   </si>
   <si>
@@ -72,19 +102,7 @@
     <t>Стихотворения. Поэмы</t>
   </si>
   <si>
-    <t>Муштук і папка (сборник)</t>
-  </si>
-  <si>
-    <t>Брыль</t>
-  </si>
-  <si>
     <t>Повести Белкина</t>
-  </si>
-  <si>
-    <t>Ночь, улица, фонарь, аптека…</t>
-  </si>
-  <si>
-    <t>Я из огненной деревни</t>
   </si>
 </sst>
 </file>
@@ -131,7 +149,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -168,6 +186,28 @@
       </c>
       <c r="C3" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -186,21 +226,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0">
         <v>2</v>
@@ -208,65 +248,65 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -274,10 +314,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
@@ -285,10 +325,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0">
         <v>0</v>
